--- a/media/excel_outputs/excel_doi_chieu.xlsx
+++ b/media/excel_outputs/excel_doi_chieu.xlsx
@@ -584,7 +584,7 @@
           <t>Mường</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
@@ -641,7 +641,7 @@
           <t>Kinh</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
@@ -698,7 +698,7 @@
           <t>Kinh</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
@@ -755,7 +755,7 @@
           <t>Kinh</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
@@ -812,7 +812,7 @@
           <t>Kinh</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
@@ -869,7 +869,7 @@
           <t>Kinh</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
@@ -926,7 +926,7 @@
           <t>Kinh</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
@@ -983,7 +983,7 @@
           <t>Kinh</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
@@ -1040,7 +1040,7 @@
           <t>Kinh</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
@@ -1097,7 +1097,7 @@
           <t>Kinh</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>

--- a/media/excel_outputs/excel_doi_chieu.xlsx
+++ b/media/excel_outputs/excel_doi_chieu.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="10">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -32,12 +32,53 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <color theme="1"/>
       <sz val="10"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="TimesNewRomanPSMT"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -46,18 +87,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -80,26 +115,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -379,729 +543,948 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="19.36328125" customWidth="1" min="5" max="5"/>
-    <col width="12.7265625" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
-    <col width="9.08984375" customWidth="1" min="9" max="9"/>
-    <col width="11.7265625" customWidth="1" min="10" max="10"/>
+    <col width="3.6328125" customWidth="1" style="18" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="73" customHeight="1" s="18" thickBot="1">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>STT</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>MSSV</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Họ Tên SV</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Khối /
- Trường</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+Trường</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Khóa nhập học gần nhất
- (theo version của TS:
- 18.3, 18.2 …)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+(theo version của TS:
+18.3, 18.2 …)</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Khóa nhập học
- ban đầu</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+ban đầu</t>
+        </is>
+      </c>
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Trạng thái
- sinh viên
- (mã trạng thái)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+sinh viên
+(mã trạng thái)</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>Kỳ học hiện tại
- (kỳ thứ theo
- chương trình học : 0-8)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+(kỳ thứ theo
+chương trình học : 0-8)</t>
+        </is>
+      </c>
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>Ngành học</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>Chuyên ngành</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="7" t="inlineStr">
+        <is>
+          <t>Chuyên ngành hẹp</t>
+        </is>
+      </c>
+      <c r="L1" s="7" t="inlineStr">
         <is>
           <t>Tên khung</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="7" t="inlineStr">
+        <is>
+          <t>Tên khung bằng tiếng anh</t>
+        </is>
+      </c>
+      <c r="N1" s="7" t="inlineStr">
         <is>
           <t>Mã khung</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Ngày sinh</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Giới tính</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Dân tộc</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
-        <is>
-          <t>Quyết định công nhận sinh viên</t>
-        </is>
-      </c>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t>Quyết định công nhận chuyên ngành</t>
-        </is>
-      </c>
-      <c r="R1" s="3" t="inlineStr">
-        <is>
-          <t>Quyết định miễn giảm</t>
-        </is>
-      </c>
-      <c r="S1" s="3" t="inlineStr">
-        <is>
-          <t>Quyết định chuyển ngành</t>
-        </is>
-      </c>
-      <c r="T1" s="3" t="inlineStr">
-        <is>
-          <t>Quyết định bảo lưu</t>
-        </is>
-      </c>
-      <c r="U1" s="3" t="inlineStr">
-        <is>
-          <t>Quyết định thôi học</t>
-        </is>
-      </c>
-      <c r="V1" s="3" t="inlineStr">
-        <is>
-          <t>Quyết định chuyển cơ sở</t>
-        </is>
-      </c>
-      <c r="W1" s="3" t="inlineStr">
-        <is>
-          <t>Quyết định khen thưởng</t>
-        </is>
-      </c>
-      <c r="X1" s="3" t="inlineStr">
-        <is>
-          <t>Quyết định kỷ luật</t>
-        </is>
-      </c>
-      <c r="Y1" s="3" t="inlineStr">
-        <is>
-          <t>Quyết định tốt nghiệp Trung cấp</t>
-        </is>
-      </c>
-      <c r="Z1" s="4" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>Công nhận sinh viên</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Chuyển ngành</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Chuyển cơ sở</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Nghỉ học tạm thời</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Nhập học trở lại</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Chuyển khung</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Miễn giảm môn học</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Khen thưởng</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Kỷ luật</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Công nhận tốt nghiệp</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
         <is>
           <t>Ghi chú</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="n">
+    <row r="2" ht="29" customHeight="1" s="18" thickBot="1">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t>PH30839</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>Đinh Văn Tú</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="11" t="inlineStr">
         <is>
           <t>CAO ĐẲNG FPT POLYTECHNIC</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>18</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18</v>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="E2" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="13" t="inlineStr">
         <is>
           <t>Thiết kế đồ họa</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="14" t="inlineStr">
         <is>
           <t>Thiết kế đồ họa</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="K2" s="12" t="n"/>
+      <c r="L2" s="12" t="n"/>
+      <c r="M2" s="12" t="n"/>
+      <c r="N2" s="12" t="n"/>
+      <c r="O2" t="inlineStr">
         <is>
           <t>21/04/2002</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Mường</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="S2" s="4" t="n"/>
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="n">
+      <c r="U2" s="4" t="n"/>
+      <c r="V2" s="4" t="n"/>
+      <c r="W2" s="4" t="n"/>
+      <c r="X2" s="4" t="n"/>
+      <c r="Y2" s="4" t="n"/>
+      <c r="Z2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A3" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>PH30852</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>Hoàng Trung Kiên</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="17" t="inlineStr">
         <is>
           <t>CAO ĐẲNG FPT POLYTECHNIC</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>18</v>
-      </c>
-      <c r="F3" t="n">
-        <v>18</v>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="E3" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="F3" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="I3" s="19" t="inlineStr">
         <is>
           <t>Quản trị kinh
 doanh</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="19" t="inlineStr">
         <is>
           <t>Digital Marketing</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>18/07/2004</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Kinh</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="n">
+    <row r="4" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A4" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="16" t="inlineStr">
         <is>
           <t>PH30880</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="16" t="inlineStr">
         <is>
           <t>Trần Diệu Anh</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="11" t="inlineStr">
         <is>
           <t>CAO ĐẲNG FPT POLYTECHNIC</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>18</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18</v>
-      </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="E4" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="F4" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="I4" s="19" t="inlineStr">
         <is>
           <t>Quản trị kinh
 doanh</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="19" t="inlineStr">
         <is>
           <t>Digital Marketing</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>04/02/2004</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Kinh</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="n">
+    <row r="5" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A5" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="16" t="inlineStr">
         <is>
           <t>PH30887</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="16" t="inlineStr">
         <is>
           <t>Nguyễn Minh Quang</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="17" t="inlineStr">
         <is>
           <t>CAO ĐẲNG FPT POLYTECHNIC</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>18</v>
-      </c>
-      <c r="F5" t="n">
-        <v>18</v>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
+      <c r="E5" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="I5" s="19" t="inlineStr">
         <is>
           <t>Quản trị kinh
 doanh</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="19" t="inlineStr">
         <is>
           <t>Digital Marketing</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>07/04/2002</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Kinh</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" t="n">
+    <row r="6" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A6" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="16" t="inlineStr">
         <is>
           <t>PH30889</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="16" t="inlineStr">
         <is>
           <t>Phạm Thị Thùy Dung</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="11" t="inlineStr">
         <is>
           <t>CAO ĐẲNG FPT POLYTECHNIC</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>18</v>
-      </c>
-      <c r="F6" t="n">
-        <v>18</v>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
+      <c r="E6" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="F6" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="I6" s="19" t="inlineStr">
         <is>
           <t>Quản trị kinh
 doanh</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="19" t="inlineStr">
         <is>
           <t>Digital Marketing</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>24/04/2004</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Kinh</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" t="n">
+    <row r="7" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A7" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="16" t="inlineStr">
         <is>
           <t>PH30891</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="16" t="inlineStr">
         <is>
           <t>Trần Hoàng Long</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="17" t="inlineStr">
         <is>
           <t>CAO ĐẲNG FPT POLYTECHNIC</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>18</v>
-      </c>
-      <c r="F7" t="n">
-        <v>18</v>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
+      <c r="E7" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="I7" s="19" t="inlineStr">
         <is>
           <t>Công nghệ
 thông tin</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="19" t="inlineStr">
         <is>
           <t>Lập trình Mobile</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>14/02/2004</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Kinh</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" t="n">
+    <row r="8" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A8" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="16" t="inlineStr">
         <is>
           <t>PH30899</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="16" t="inlineStr">
         <is>
           <t>Đỗ Minh Đức</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="11" t="inlineStr">
         <is>
           <t>CAO ĐẲNG FPT POLYTECHNIC</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>18</v>
-      </c>
-      <c r="F8" t="n">
-        <v>18</v>
-      </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="E8" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="F8" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="I8" s="19" t="inlineStr">
         <is>
           <t>Quản trị kinh
 doanh</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="19" t="inlineStr">
         <is>
           <t>Digital Marketing</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>20/01/2004</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Kinh</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" t="n">
+    <row r="9" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A9" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="16" t="inlineStr">
         <is>
           <t>PH30903</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="16" t="inlineStr">
         <is>
           <t>Đỗ Thị Uyên</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="17" t="inlineStr">
         <is>
           <t>CAO ĐẲNG FPT POLYTECHNIC</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>18</v>
-      </c>
-      <c r="F9" t="n">
-        <v>18</v>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
+      <c r="E9" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="I9" s="19" t="inlineStr">
         <is>
           <t>Quản trị kinh
 doanh</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="19" t="inlineStr">
         <is>
           <t>Digital Marketing</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>31/08/2004</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Kinh</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="n">
+    <row r="10" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A10" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="16" t="inlineStr">
         <is>
           <t>PH30907</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="16" t="inlineStr">
         <is>
           <t>Trần Văn Thành</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="11" t="inlineStr">
         <is>
           <t>CAO ĐẲNG FPT POLYTECHNIC</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>18</v>
-      </c>
-      <c r="F10" t="n">
-        <v>18</v>
-      </c>
-      <c r="I10" s="5" t="inlineStr">
+      <c r="E10" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="F10" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="I10" s="19" t="inlineStr">
         <is>
           <t>Quản trị kinh
 doanh</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="19" t="inlineStr">
         <is>
           <t>Digital Marketing</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>27/06/2004</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Kinh</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="n">
+    <row r="11" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A11" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="16" t="inlineStr">
         <is>
           <t>PH30924</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="16" t="inlineStr">
         <is>
           <t>Lê Đình An</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="17" t="inlineStr">
         <is>
           <t>CAO ĐẲNG FPT POLYTECHNIC</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>18</v>
-      </c>
-      <c r="F11" t="n">
-        <v>18</v>
-      </c>
-      <c r="I11" s="5" t="inlineStr">
+      <c r="E11" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="F11" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="I11" s="19" t="inlineStr">
         <is>
           <t>Công nghệ
 thông tin</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="19" t="inlineStr">
         <is>
           <t>Lập trình Web</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>16/03/2004</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>Nam</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Kinh</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>Số: 245 /QĐ-CĐFPL Hà Nội, ngày 18 tháng 08 năm 2022</t>
         </is>
       </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A12" s="15" t="n"/>
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="11" t="n"/>
+      <c r="E12" s="12" t="n"/>
+      <c r="F12" s="12" t="n"/>
+      <c r="I12" s="19" t="n"/>
+      <c r="J12" s="19" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A13" s="15" t="n"/>
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="20" t="n"/>
+      <c r="D13" s="17" t="n"/>
+      <c r="E13" s="12" t="n"/>
+      <c r="F13" s="12" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A14" s="15" t="n"/>
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="20" t="n"/>
+      <c r="D14" s="11" t="n"/>
+      <c r="E14" s="12" t="n"/>
+      <c r="F14" s="12" t="n"/>
+      <c r="I14" s="19" t="n"/>
+      <c r="J14" s="19" t="n"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A15" s="15" t="n"/>
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="20" t="n"/>
+      <c r="D15" s="17" t="n"/>
+      <c r="E15" s="12" t="n"/>
+      <c r="F15" s="12" t="n"/>
+      <c r="I15" s="19" t="n"/>
+      <c r="J15" s="19" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A16" s="15" t="n"/>
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="20" t="n"/>
+      <c r="D16" s="11" t="n"/>
+      <c r="E16" s="12" t="n"/>
+      <c r="F16" s="12" t="n"/>
+      <c r="I16" s="19" t="n"/>
+      <c r="J16" s="19" t="n"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A17" s="15" t="n"/>
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="20" t="n"/>
+      <c r="D17" s="17" t="n"/>
+      <c r="E17" s="12" t="n"/>
+      <c r="F17" s="12" t="n"/>
+      <c r="I17" s="19" t="n"/>
+      <c r="J17" s="19" t="n"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A18" s="15" t="n"/>
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="20" t="n"/>
+      <c r="D18" s="11" t="n"/>
+      <c r="E18" s="12" t="n"/>
+      <c r="F18" s="12" t="n"/>
+      <c r="I18" s="19" t="n"/>
+      <c r="J18" s="19" t="n"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A19" s="15" t="n"/>
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="20" t="n"/>
+      <c r="D19" s="17" t="n"/>
+      <c r="E19" s="12" t="n"/>
+      <c r="F19" s="12" t="n"/>
+      <c r="I19" s="19" t="n"/>
+      <c r="J19" s="19" t="n"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A20" s="15" t="n"/>
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="20" t="n"/>
+      <c r="D20" s="11" t="n"/>
+      <c r="E20" s="12" t="n"/>
+      <c r="F20" s="12" t="n"/>
+      <c r="I20" s="19" t="n"/>
+      <c r="J20" s="19" t="n"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A21" s="15" t="n"/>
+      <c r="B21" s="16" t="n"/>
+      <c r="C21" s="20" t="n"/>
+      <c r="D21" s="17" t="n"/>
+      <c r="E21" s="12" t="n"/>
+      <c r="F21" s="12" t="n"/>
+      <c r="I21" s="19" t="n"/>
+      <c r="J21" s="19" t="n"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A22" s="15" t="n"/>
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="20" t="n"/>
+      <c r="D22" s="11" t="n"/>
+      <c r="E22" s="12" t="n"/>
+      <c r="F22" s="12" t="n"/>
+      <c r="I22" s="19" t="n"/>
+      <c r="J22" s="19" t="n"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A23" s="15" t="n"/>
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="20" t="n"/>
+      <c r="D23" s="17" t="n"/>
+      <c r="E23" s="12" t="n"/>
+      <c r="F23" s="12" t="n"/>
+      <c r="I23" s="19" t="n"/>
+      <c r="J23" s="19" t="n"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A24" s="15" t="n"/>
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="20" t="n"/>
+      <c r="D24" s="11" t="n"/>
+      <c r="E24" s="12" t="n"/>
+      <c r="F24" s="12" t="n"/>
+      <c r="I24" s="19" t="n"/>
+      <c r="J24" s="19" t="n"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A25" s="15" t="n"/>
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="20" t="n"/>
+      <c r="D25" s="17" t="n"/>
+      <c r="E25" s="12" t="n"/>
+      <c r="F25" s="12" t="n"/>
+      <c r="I25" s="19" t="n"/>
+      <c r="J25" s="19" t="n"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A26" s="15" t="n"/>
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="20" t="n"/>
+      <c r="D26" s="11" t="n"/>
+      <c r="E26" s="12" t="n"/>
+      <c r="F26" s="12" t="n"/>
+      <c r="I26" s="19" t="n"/>
+      <c r="J26" s="19" t="n"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A27" s="15" t="n"/>
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="20" t="n"/>
+      <c r="D27" s="17" t="n"/>
+      <c r="E27" s="12" t="n"/>
+      <c r="F27" s="12" t="n"/>
+      <c r="I27" s="19" t="n"/>
+      <c r="J27" s="19" t="n"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A28" s="15" t="n"/>
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="20" t="n"/>
+      <c r="D28" s="11" t="n"/>
+      <c r="E28" s="12" t="n"/>
+      <c r="F28" s="12" t="n"/>
+      <c r="I28" s="19" t="n"/>
+      <c r="J28" s="19" t="n"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A29" s="15" t="n"/>
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="20" t="n"/>
+      <c r="D29" s="17" t="n"/>
+      <c r="E29" s="12" t="n"/>
+      <c r="F29" s="12" t="n"/>
+      <c r="I29" s="19" t="n"/>
+      <c r="J29" s="19" t="n"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A30" s="15" t="n"/>
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="20" t="n"/>
+      <c r="D30" s="11" t="n"/>
+      <c r="E30" s="12" t="n"/>
+      <c r="F30" s="12" t="n"/>
+      <c r="I30" s="19" t="n"/>
+      <c r="J30" s="19" t="n"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" s="18" thickBot="1">
+      <c r="A31" s="15" t="n"/>
+      <c r="B31" s="16" t="n"/>
+      <c r="C31" s="20" t="n"/>
+      <c r="D31" s="17" t="n"/>
+      <c r="E31" s="12" t="n"/>
+      <c r="F31" s="12" t="n"/>
+      <c r="I31" s="19" t="n"/>
+      <c r="J31" s="19" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
